--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/CONNECTICUT_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/CONNECTICUT_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D527"/>
+  <dimension ref="A1:D521"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,34 +360,34 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="C2">
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C3">
@@ -413,12 +413,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA</t>
+          <t>Baja California</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TIJUANA</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="C4">
@@ -431,7 +431,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C5">
@@ -444,12 +444,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ACACOYAGUA</t>
+          <t>Acacoyagua</t>
         </is>
       </c>
       <c r="C6">
@@ -462,7 +462,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>ACAPETAHUA</t>
+          <t>Acapetahua</t>
         </is>
       </c>
       <c r="C7">
@@ -475,7 +475,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>AMATENANGO DE LA FRONTERA</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C8">
@@ -488,7 +488,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>AMATENANGO DEL VALLE</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C9">
@@ -501,7 +501,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>ARRIAGA</t>
+          <t>Arriaga</t>
         </is>
       </c>
       <c r="C10">
@@ -514,7 +514,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>BOCHIL</t>
+          <t>Bochil</t>
         </is>
       </c>
       <c r="C11">
@@ -527,7 +527,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>CACAHOATÁN</t>
+          <t>Cacahoatán</t>
         </is>
       </c>
       <c r="C12">
@@ -540,7 +540,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>CHAMULA</t>
+          <t>Chamula</t>
         </is>
       </c>
       <c r="C13">
@@ -553,7 +553,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHILÓN</t>
+          <t>Chilón</t>
         </is>
       </c>
       <c r="C14">
@@ -566,7 +566,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>COMITÁN DE DOMÍNGUEZ</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C15">
@@ -579,7 +579,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>COPAINALÁ</t>
+          <t>Copainalá</t>
         </is>
       </c>
       <c r="C16">
@@ -592,7 +592,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>EL PORVENIR</t>
+          <t>El Porvenir</t>
         </is>
       </c>
       <c r="C17">
@@ -605,7 +605,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>ESCUINTLA</t>
+          <t>Escuintla</t>
         </is>
       </c>
       <c r="C18">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>FRONTERA COMALAPA</t>
+          <t>Frontera Comalapa</t>
         </is>
       </c>
       <c r="C19">
@@ -631,7 +631,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>HUEHUETÁN</t>
+          <t>Huehuetán</t>
         </is>
       </c>
       <c r="C20">
@@ -644,7 +644,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>HUIXTLA</t>
+          <t>Huixtla</t>
         </is>
       </c>
       <c r="C21">
@@ -657,7 +657,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>JIQUIPILAS</t>
+          <t>Jiquipilas</t>
         </is>
       </c>
       <c r="C22">
@@ -670,7 +670,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>LA CONCORDIA</t>
+          <t>La Concordia</t>
         </is>
       </c>
       <c r="C23">
@@ -683,7 +683,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>LA GRANDEZA</t>
+          <t>La Grandeza</t>
         </is>
       </c>
       <c r="C24">
@@ -696,7 +696,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>LA TRINITARIA</t>
+          <t>La Trinitaria</t>
         </is>
       </c>
       <c r="C25">
@@ -709,7 +709,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>LAS MARGARITAS</t>
+          <t>Las Margaritas</t>
         </is>
       </c>
       <c r="C26">
@@ -722,7 +722,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>LAS ROSAS</t>
+          <t>Las Rosas</t>
         </is>
       </c>
       <c r="C27">
@@ -735,7 +735,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAPASTEPEC</t>
+          <t>Mapastepec</t>
         </is>
       </c>
       <c r="C28">
@@ -748,7 +748,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>MAZAPA DE MADERO</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C29">
@@ -761,7 +761,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>MOTOZINTLA</t>
+          <t>Motozintla</t>
         </is>
       </c>
       <c r="C30">
@@ -774,7 +774,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>OCOSINGO</t>
+          <t>Ocosingo</t>
         </is>
       </c>
       <c r="C31">
@@ -787,7 +787,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>PANTELHÓ</t>
+          <t>Pantelhó</t>
         </is>
       </c>
       <c r="C32">
@@ -800,7 +800,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>PIJIJIAPAN</t>
+          <t>Pijijiapan</t>
         </is>
       </c>
       <c r="C33">
@@ -813,7 +813,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>SAN CRISTÓBAL DE LAS CASAS</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C34">
@@ -826,7 +826,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>SILTEPEC</t>
+          <t>Siltepec</t>
         </is>
       </c>
       <c r="C35">
@@ -839,7 +839,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>TAPACHULA</t>
+          <t>Tapachula</t>
         </is>
       </c>
       <c r="C36">
@@ -852,7 +852,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>TAPALAPA</t>
+          <t>Tapalapa</t>
         </is>
       </c>
       <c r="C37">
@@ -865,7 +865,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>TECPATÁN</t>
+          <t>Tecpatán</t>
         </is>
       </c>
       <c r="C38">
@@ -878,7 +878,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>TEOPISCA</t>
+          <t>Teopisca</t>
         </is>
       </c>
       <c r="C39">
@@ -891,7 +891,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>TUMBALÁ</t>
+          <t>Tumbalá</t>
         </is>
       </c>
       <c r="C40">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>TUXTLA CHICO</t>
+          <t>Tuxtla Chico</t>
         </is>
       </c>
       <c r="C41">
@@ -917,7 +917,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>UNIÓN JUÁREZ</t>
+          <t>Unión Juárez</t>
         </is>
       </c>
       <c r="C42">
@@ -930,7 +930,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>VILLA COMALTITLÁN</t>
+          <t>Villa Comaltitlán</t>
         </is>
       </c>
       <c r="C43">
@@ -943,7 +943,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>YAJALÓN</t>
+          <t>Yajalón</t>
         </is>
       </c>
       <c r="C44">
@@ -956,7 +956,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C45">
@@ -969,12 +969,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DELICIAS</t>
+          <t>Delicias</t>
         </is>
       </c>
       <c r="C46">
@@ -987,7 +987,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>JUÁREZ</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="C47">
@@ -1000,7 +1000,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C48">
@@ -1013,12 +1013,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CIUDAD DE MÉXICO</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>AZCAPOTZALCO</t>
+          <t>Azcapotzalco</t>
         </is>
       </c>
       <c r="C49">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C50">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>COYOACÁN</t>
+          <t>Coyoacán</t>
         </is>
       </c>
       <c r="C51">
@@ -1057,7 +1057,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>CUAJIMALPA DE MORELOS</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C52">
@@ -1070,7 +1070,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C53">
@@ -1083,7 +1083,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
+          <t>Gustavo A. Madero</t>
         </is>
       </c>
       <c r="C54">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>IZTACALCO</t>
+          <t>Iztacalco</t>
         </is>
       </c>
       <c r="C55">
@@ -1109,7 +1109,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>IZTAPALAPA</t>
+          <t>Iztapalapa</t>
         </is>
       </c>
       <c r="C56">
@@ -1122,7 +1122,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>MIGUEL HIDALGO</t>
+          <t>Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C57">
@@ -1135,7 +1135,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>TLALPAN</t>
+          <t>Tlalpan</t>
         </is>
       </c>
       <c r="C58">
@@ -1148,7 +1148,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C59">
@@ -1161,7 +1161,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>XOCHIMILCO</t>
+          <t>Xochimilco</t>
         </is>
       </c>
       <c r="C60">
@@ -1174,7 +1174,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>ÁLVARO OBREGÓN</t>
+          <t>Álvaro Obregón</t>
         </is>
       </c>
       <c r="C61">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C62">
@@ -1200,12 +1200,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>COAHUILA DE ZARAGOZA</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CASTAÑOS</t>
+          <t>Castaños</t>
         </is>
       </c>
       <c r="C63">
@@ -1218,7 +1218,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>PIEDRAS NEGRAS</t>
+          <t>Piedras Negras</t>
         </is>
       </c>
       <c r="C64">
@@ -1231,7 +1231,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>SAN PEDRO</t>
+          <t>San Pedro</t>
         </is>
       </c>
       <c r="C65">
@@ -1244,7 +1244,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>TORREÓN</t>
+          <t>Torreón</t>
         </is>
       </c>
       <c r="C66">
@@ -1257,7 +1257,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C67">
@@ -1270,12 +1270,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="C68">
@@ -1288,7 +1288,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>GUADALUPE VICTORIA</t>
+          <t>Guadalupe Victoria</t>
         </is>
       </c>
       <c r="C69">
@@ -1301,7 +1301,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C70">
@@ -1314,12 +1314,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ESTADO DE MÉXICO</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ALMOLOYA DE ALQUISIRAS</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C71">
@@ -1332,7 +1332,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>AMECAMECA</t>
+          <t>Amecameca</t>
         </is>
       </c>
       <c r="C72">
@@ -1345,7 +1345,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>APAXCO</t>
+          <t>Apaxco</t>
         </is>
       </c>
       <c r="C73">
@@ -1358,7 +1358,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>ATIZAPÁN</t>
+          <t>Atizapán</t>
         </is>
       </c>
       <c r="C74">
@@ -1371,7 +1371,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>ATIZAPÁN DE ZARAGOZA</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C75">
@@ -1384,7 +1384,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>CHALCO</t>
+          <t>Chalco</t>
         </is>
       </c>
       <c r="C76">
@@ -1397,7 +1397,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>CHIMALHUACÁN</t>
+          <t>Chimalhuacán</t>
         </is>
       </c>
       <c r="C77">
@@ -1410,7 +1410,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>COACALCO DE BERRIOZÁBAL</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C78">
@@ -1423,7 +1423,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>CUAUTITLÁN</t>
+          <t>Cuautitlán</t>
         </is>
       </c>
       <c r="C79">
@@ -1436,7 +1436,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>ECATEPEC DE MORELOS</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C80">
@@ -1449,7 +1449,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>EL ORO</t>
+          <t>El Oro</t>
         </is>
       </c>
       <c r="C81">
@@ -1462,7 +1462,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>HUEYPOXTLA</t>
+          <t>Hueypoxtla</t>
         </is>
       </c>
       <c r="C82">
@@ -1475,7 +1475,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>HUIXQUILUCAN</t>
+          <t>Huixquilucan</t>
         </is>
       </c>
       <c r="C83">
@@ -1488,7 +1488,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>IXTAPALUCA</t>
+          <t>Ixtapaluca</t>
         </is>
       </c>
       <c r="C84">
@@ -1501,7 +1501,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>IXTAPAN DE LA SAL</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C85">
@@ -1514,7 +1514,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>IXTLAHUACA</t>
+          <t>Ixtlahuaca</t>
         </is>
       </c>
       <c r="C86">
@@ -1527,7 +1527,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>JILOTEPEC</t>
+          <t>Jilotepec</t>
         </is>
       </c>
       <c r="C87">
@@ -1540,7 +1540,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>JIQUIPILCO</t>
+          <t>Jiquipilco</t>
         </is>
       </c>
       <c r="C88">
@@ -1553,7 +1553,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>LA PAZ</t>
+          <t>La Paz</t>
         </is>
       </c>
       <c r="C89">
@@ -1566,7 +1566,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>LERMA</t>
+          <t>Lerma</t>
         </is>
       </c>
       <c r="C90">
@@ -1579,7 +1579,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>NAUCALPAN DE JUÁREZ</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C91">
@@ -1592,7 +1592,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>NEZAHUALCÓYOTL</t>
+          <t>Nezahualcóyotl</t>
         </is>
       </c>
       <c r="C92">
@@ -1605,7 +1605,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>SAN FELIPE DEL PROGRESO</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C93">
@@ -1618,7 +1618,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>SULTEPEC</t>
+          <t>Sultepec</t>
         </is>
       </c>
       <c r="C94">
@@ -1631,7 +1631,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>TEJUPILCO</t>
+          <t>Tejupilco</t>
         </is>
       </c>
       <c r="C95">
@@ -1644,7 +1644,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>TEMASCALCINGO</t>
+          <t>Temascalcingo</t>
         </is>
       </c>
       <c r="C96">
@@ -1657,7 +1657,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>TEMASCALTEPEC</t>
+          <t>Temascaltepec</t>
         </is>
       </c>
       <c r="C97">
@@ -1670,7 +1670,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>TENANCINGO</t>
+          <t>Tenancingo</t>
         </is>
       </c>
       <c r="C98">
@@ -1683,7 +1683,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>TENANGO DEL VALLE</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C99">
@@ -1696,7 +1696,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>TEPETLIXPA</t>
+          <t>Tepetlixpa</t>
         </is>
       </c>
       <c r="C100">
@@ -1709,7 +1709,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>TEXCALTITLÁN</t>
+          <t>Texcaltitlán</t>
         </is>
       </c>
       <c r="C101">
@@ -1722,7 +1722,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>TLALMANALCO</t>
+          <t>Tlalmanalco</t>
         </is>
       </c>
       <c r="C102">
@@ -1735,7 +1735,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>TLALNEPANTLA DE BAZ</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C103">
@@ -1748,7 +1748,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>TLATLAYA</t>
+          <t>Tlatlaya</t>
         </is>
       </c>
       <c r="C104">
@@ -1761,7 +1761,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>TOLUCA</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="C105">
@@ -1774,7 +1774,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>TULTEPEC</t>
+          <t>Tultepec</t>
         </is>
       </c>
       <c r="C106">
@@ -1787,7 +1787,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>VILLA GUERRERO</t>
+          <t>Villa Guerrero</t>
         </is>
       </c>
       <c r="C107">
@@ -1800,7 +1800,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>VILLA VICTORIA</t>
+          <t>Villa Victoria</t>
         </is>
       </c>
       <c r="C108">
@@ -1813,7 +1813,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>ZINACANTEPEC</t>
+          <t>Zinacantepec</t>
         </is>
       </c>
       <c r="C109">
@@ -1826,7 +1826,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C110">
@@ -1839,12 +1839,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ABASOLO</t>
+          <t>Abasolo</t>
         </is>
       </c>
       <c r="C111">
@@ -1857,7 +1857,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>APASEO EL ALTO</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C112">
@@ -1870,7 +1870,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>ATARJEA</t>
+          <t>Atarjea</t>
         </is>
       </c>
       <c r="C113">
@@ -1883,7 +1883,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>CELAYA</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="C114">
@@ -1896,7 +1896,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="C115">
@@ -1909,7 +1909,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>IRAPUATO</t>
+          <t>Irapuato</t>
         </is>
       </c>
       <c r="C116">
@@ -1922,7 +1922,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>JERÉCUARO</t>
+          <t>Jerécuaro</t>
         </is>
       </c>
       <c r="C117">
@@ -1935,7 +1935,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>LEÓN</t>
+          <t>León</t>
         </is>
       </c>
       <c r="C118">
@@ -1948,7 +1948,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>MOROLEÓN</t>
+          <t>Moroleón</t>
         </is>
       </c>
       <c r="C119">
@@ -1961,7 +1961,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>SALAMANCA</t>
+          <t>Salamanca</t>
         </is>
       </c>
       <c r="C120">
@@ -1974,7 +1974,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>SALVATIERRA</t>
+          <t>Salvatierra</t>
         </is>
       </c>
       <c r="C121">
@@ -1987,7 +1987,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>SAN FELIPE</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="C122">
@@ -2000,7 +2000,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>SAN LUIS DE LA PAZ</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C123">
@@ -2013,7 +2013,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>SANTIAGO MARAVATÍO</t>
+          <t>Santiago Maravatío</t>
         </is>
       </c>
       <c r="C124">
@@ -2026,7 +2026,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>TIERRA BLANCA</t>
+          <t>Tierra Blanca</t>
         </is>
       </c>
       <c r="C125">
@@ -2039,7 +2039,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>YURIRIA</t>
+          <t>Yuriria</t>
         </is>
       </c>
       <c r="C126">
@@ -2052,7 +2052,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C127">
@@ -2065,12 +2065,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ACAPULCO DE JUÁREZ</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C128">
@@ -2083,7 +2083,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>ACATEPEC</t>
+          <t>Acatepec</t>
         </is>
       </c>
       <c r="C129">
@@ -2096,7 +2096,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>AHUACUOTZINGO</t>
+          <t>Ahuacuotzingo</t>
         </is>
       </c>
       <c r="C130">
@@ -2109,7 +2109,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>ALCOZAUCA DE GUERRERO</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C131">
@@ -2122,7 +2122,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>ALPOYECA</t>
+          <t>Alpoyeca</t>
         </is>
       </c>
       <c r="C132">
@@ -2135,7 +2135,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>ATOYAC DE ÁLVAREZ</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C133">
@@ -2148,7 +2148,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>AYUTLA DE LOS LIBRES</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C134">
@@ -2161,7 +2161,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>CHILAPA DE ÁLVAREZ</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C135">
@@ -2174,7 +2174,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>COPANATOYAC</t>
+          <t>Copanatoyac</t>
         </is>
       </c>
       <c r="C136">
@@ -2187,7 +2187,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>COYUCA DE BENÍTEZ</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C137">
@@ -2200,7 +2200,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>EDUARDO NERI</t>
+          <t>Eduardo Neri</t>
         </is>
       </c>
       <c r="C138">
@@ -2213,7 +2213,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>HUAMUXTITLÁN</t>
+          <t>Huamuxtitlán</t>
         </is>
       </c>
       <c r="C139">
@@ -2226,7 +2226,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>IGUALAPA</t>
+          <t>Igualapa</t>
         </is>
       </c>
       <c r="C140">
@@ -2239,7 +2239,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>IXCATEOPAN DE CUAUHTÉMOC</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C141">
@@ -2252,7 +2252,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>JUAN R. ESCUDERO</t>
+          <t>Juan R. Escudero</t>
         </is>
       </c>
       <c r="C142">
@@ -2265,7 +2265,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>METLATÓNOC</t>
+          <t>Metlatónoc</t>
         </is>
       </c>
       <c r="C143">
@@ -2278,7 +2278,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>MOCHITLÁN</t>
+          <t>Mochitlán</t>
         </is>
       </c>
       <c r="C144">
@@ -2291,7 +2291,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>OLINALÁ</t>
+          <t>Olinalá</t>
         </is>
       </c>
       <c r="C145">
@@ -2304,7 +2304,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>OMETEPEC</t>
+          <t>Ometepec</t>
         </is>
       </c>
       <c r="C146">
@@ -2317,7 +2317,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>PILCAYA</t>
+          <t>Pilcaya</t>
         </is>
       </c>
       <c r="C147">
@@ -2330,7 +2330,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>PUNGARABATO</t>
+          <t>Pungarabato</t>
         </is>
       </c>
       <c r="C148">
@@ -2343,7 +2343,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>SAN LUIS ACATLÁN</t>
+          <t>San Luis Acatlán</t>
         </is>
       </c>
       <c r="C149">
@@ -2356,7 +2356,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>SAN MARCOS</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="C150">
@@ -2369,7 +2369,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>TELOLOAPAN</t>
+          <t>Teloloapan</t>
         </is>
       </c>
       <c r="C151">
@@ -2382,7 +2382,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>TIXTLA DE GUERRERO</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C152">
@@ -2395,7 +2395,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>TLAPA DE COMONFORT</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C153">
@@ -2408,7 +2408,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>TLAPEHUALA</t>
+          <t>Tlapehuala</t>
         </is>
       </c>
       <c r="C154">
@@ -2421,7 +2421,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>XALPATLÁHUAC</t>
+          <t>Xalpatláhuac</t>
         </is>
       </c>
       <c r="C155">
@@ -2434,7 +2434,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>XOCHIHUEHUETLÁN</t>
+          <t>Xochihuehuetlán</t>
         </is>
       </c>
       <c r="C156">
@@ -2447,7 +2447,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>ZAPOTITLÁN TABLAS</t>
+          <t>Zapotitlán Tablas</t>
         </is>
       </c>
       <c r="C157">
@@ -2460,7 +2460,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C158">
@@ -2473,12 +2473,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ACTOPAN</t>
+          <t>Actopan</t>
         </is>
       </c>
       <c r="C159">
@@ -2491,7 +2491,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>AJACUBA</t>
+          <t>Ajacuba</t>
         </is>
       </c>
       <c r="C160">
@@ -2504,7 +2504,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>ALFAJAYUCAN</t>
+          <t>Alfajayucan</t>
         </is>
       </c>
       <c r="C161">
@@ -2517,7 +2517,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>APAN</t>
+          <t>Apan</t>
         </is>
       </c>
       <c r="C162">
@@ -2530,7 +2530,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>CARDONAL</t>
+          <t>Cardonal</t>
         </is>
       </c>
       <c r="C163">
@@ -2543,7 +2543,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>CHAPANTONGO</t>
+          <t>Chapantongo</t>
         </is>
       </c>
       <c r="C164">
@@ -2556,7 +2556,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>FRANCISCO I. MADERO</t>
+          <t>Francisco I. Madero</t>
         </is>
       </c>
       <c r="C165">
@@ -2569,7 +2569,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>HUEHUETLA</t>
+          <t>Huehuetla</t>
         </is>
       </c>
       <c r="C166">
@@ -2582,7 +2582,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>HUICHAPAN</t>
+          <t>Huichapan</t>
         </is>
       </c>
       <c r="C167">
@@ -2595,7 +2595,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>IXMIQUILPAN</t>
+          <t>Ixmiquilpan</t>
         </is>
       </c>
       <c r="C168">
@@ -2608,7 +2608,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>LOLOTLA</t>
+          <t>Lolotla</t>
         </is>
       </c>
       <c r="C169">
@@ -2621,7 +2621,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>METEPEC</t>
+          <t>Metepec</t>
         </is>
       </c>
       <c r="C170">
@@ -2634,7 +2634,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>METZTITLÁN</t>
+          <t>Metztitlán</t>
         </is>
       </c>
       <c r="C171">
@@ -2647,7 +2647,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>MINERAL DEL CHICO</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C172">
@@ -2660,7 +2660,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>MOLANGO DE ESCAMILLA</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C173">
@@ -2673,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>PACHUCA DE SOTO</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C174">
@@ -2686,7 +2686,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>PROGRESO DE OBREGÓN</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C175">
@@ -2699,7 +2699,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>SAN SALVADOR</t>
+          <t>San Salvador</t>
         </is>
       </c>
       <c r="C176">
@@ -2712,7 +2712,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>TEPEAPULCO</t>
+          <t>Tepeapulco</t>
         </is>
       </c>
       <c r="C177">
@@ -2725,7 +2725,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>TIANGUISTENGO</t>
+          <t>Tianguistengo</t>
         </is>
       </c>
       <c r="C178">
@@ -2738,7 +2738,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>TULA DE ALLENDE</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C179">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>XOCHICOATLÁN</t>
+          <t>Xochicoatlán</t>
         </is>
       </c>
       <c r="C180">
@@ -2764,7 +2764,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>ZACUALTIPÁN DE ÁNGELES</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C181">
@@ -2777,7 +2777,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>ZEMPOALA</t>
+          <t>Zempoala</t>
         </is>
       </c>
       <c r="C182">
@@ -2790,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>ZIMAPÁN</t>
+          <t>Zimapán</t>
         </is>
       </c>
       <c r="C183">
@@ -2803,7 +2803,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C184">
@@ -2816,12 +2816,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>AHUALULCO DE MERCADO</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C185">
@@ -2834,7 +2834,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>ATENGO</t>
+          <t>Atengo</t>
         </is>
       </c>
       <c r="C186">
@@ -2847,7 +2847,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>CUQUÍO</t>
+          <t>Cuquío</t>
         </is>
       </c>
       <c r="C187">
@@ -2860,7 +2860,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C188">
@@ -2873,7 +2873,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>IXTLAHUACÁN DEL RÍO</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C189">
@@ -2886,7 +2886,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>LA BARCA</t>
+          <t>La Barca</t>
         </is>
       </c>
       <c r="C190">
@@ -2899,7 +2899,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>LAGOS DE MORENO</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C191">
@@ -2912,7 +2912,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>MAGDALENA</t>
+          <t>Magdalena</t>
         </is>
       </c>
       <c r="C192">
@@ -2925,7 +2925,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>QUITUPAN</t>
+          <t>Quitupan</t>
         </is>
       </c>
       <c r="C193">
@@ -2938,7 +2938,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>TAMAZULA DE GORDIANO</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C194">
@@ -2951,7 +2951,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>TIZAPÁN EL ALTO</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C195">
@@ -2964,7 +2964,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>TOTOTLÁN</t>
+          <t>Tototlán</t>
         </is>
       </c>
       <c r="C196">
@@ -2977,7 +2977,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>VALLE DE JUÁREZ</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C197">
@@ -2990,7 +2990,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>ZACOALCO DE TORRES</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C198">
@@ -3003,7 +3003,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>ZAPOTLÁN EL GRANDE</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C199">
@@ -3016,7 +3016,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C200">
@@ -3029,12 +3029,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>MICHOACÁN DE OCAMPO</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ANGANGUEO</t>
+          <t>Angangueo</t>
         </is>
       </c>
       <c r="C201">
@@ -3047,7 +3047,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>COAHUAYANA</t>
+          <t>Coahuayana</t>
         </is>
       </c>
       <c r="C202">
@@ -3060,7 +3060,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>COTIJA</t>
+          <t>Cotija</t>
         </is>
       </c>
       <c r="C203">
@@ -3073,7 +3073,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="C204">
@@ -3086,7 +3086,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>JIQUILPAN</t>
+          <t>Jiquilpan</t>
         </is>
       </c>
       <c r="C205">
@@ -3099,7 +3099,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>LAGUNILLAS</t>
+          <t>Lagunillas</t>
         </is>
       </c>
       <c r="C206">
@@ -3112,7 +3112,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>LOS REYES</t>
+          <t>Los Reyes</t>
         </is>
       </c>
       <c r="C207">
@@ -3125,7 +3125,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>MARCOS CASTELLANOS</t>
+          <t>Marcos Castellanos</t>
         </is>
       </c>
       <c r="C208">
@@ -3138,7 +3138,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>MORELIA</t>
+          <t>Morelia</t>
         </is>
       </c>
       <c r="C209">
@@ -3151,7 +3151,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>PARÁCUARO</t>
+          <t>Parácuaro</t>
         </is>
       </c>
       <c r="C210">
@@ -3164,7 +3164,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>PERIBÁN</t>
+          <t>Peribán</t>
         </is>
       </c>
       <c r="C211">
@@ -3177,7 +3177,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>PURUÁNDIRO</t>
+          <t>Puruándiro</t>
         </is>
       </c>
       <c r="C212">
@@ -3190,7 +3190,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>PÁTZCUARO</t>
+          <t>Pátzcuaro</t>
         </is>
       </c>
       <c r="C213">
@@ -3203,7 +3203,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>SAHUAYO</t>
+          <t>Sahuayo</t>
         </is>
       </c>
       <c r="C214">
@@ -3216,7 +3216,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>TANGAMANDAPIO</t>
+          <t>Tangamandapio</t>
         </is>
       </c>
       <c r="C215">
@@ -3229,7 +3229,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>ZAMORA</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="C216">
@@ -3242,7 +3242,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>ZIRACUARETIRO</t>
+          <t>Ziracuaretiro</t>
         </is>
       </c>
       <c r="C217">
@@ -3255,7 +3255,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>ZITÁCUARO</t>
+          <t>Zitácuaro</t>
         </is>
       </c>
       <c r="C218">
@@ -3268,7 +3268,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C219">
@@ -3281,12 +3281,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>AXOCHIAPAN</t>
+          <t>Axochiapan</t>
         </is>
       </c>
       <c r="C220">
@@ -3299,7 +3299,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>AYALA</t>
+          <t>Ayala</t>
         </is>
       </c>
       <c r="C221">
@@ -3312,7 +3312,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>CUAUTLA</t>
+          <t>Cuautla</t>
         </is>
       </c>
       <c r="C222">
@@ -3325,7 +3325,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>CUERNAVACA</t>
+          <t>Cuernavaca</t>
         </is>
       </c>
       <c r="C223">
@@ -3338,7 +3338,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>JONACATEPEC</t>
+          <t>Jonacatepec</t>
         </is>
       </c>
       <c r="C224">
@@ -3351,7 +3351,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>TEMOAC</t>
+          <t>Temoac</t>
         </is>
       </c>
       <c r="C225">
@@ -3364,7 +3364,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>TOTOLAPAN</t>
+          <t>Totolapan</t>
         </is>
       </c>
       <c r="C226">
@@ -3377,7 +3377,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>YAUTEPEC</t>
+          <t>Yautepec</t>
         </is>
       </c>
       <c r="C227">
@@ -3390,7 +3390,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>YECAPIXTLA</t>
+          <t>Yecapixtla</t>
         </is>
       </c>
       <c r="C228">
@@ -3403,7 +3403,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>ZACUALPAN</t>
+          <t>Zacualpan</t>
         </is>
       </c>
       <c r="C229">
@@ -3416,7 +3416,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C230">
@@ -3429,12 +3429,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>NAYARIT</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>RUÍZ</t>
+          <t>Ruíz</t>
         </is>
       </c>
       <c r="C231">
@@ -3447,7 +3447,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C232">
@@ -3460,12 +3460,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>NUEVO LEÓN</t>
+          <t>Nuevo León</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C233">
@@ -3478,7 +3478,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>MONTEMORELOS</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C234">
@@ -3491,7 +3491,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>MONTERREY</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="C235">
@@ -3504,7 +3504,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C236">
@@ -3517,12 +3517,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ACATLÁN DE PÉREZ FIGUEROA</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C237">
@@ -3535,7 +3535,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>ASUNCIÓN CACALOTEPEC</t>
+          <t>Asunción Cacalotepec</t>
         </is>
       </c>
       <c r="C238">
@@ -3548,7 +3548,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>ASUNCIÓN NOCHIXTLÁN</t>
+          <t>Asunción Nochixtlán</t>
         </is>
       </c>
       <c r="C239">
@@ -3561,7 +3561,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>CIÉNEGA DE ZIMATLÁN</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C240">
@@ -3574,7 +3574,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>CONSTANCIA DEL ROSARIO</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C241">
@@ -3587,7 +3587,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE HUAJUAPAN DE LEÓN</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C242">
@@ -3600,7 +3600,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE TLAXIACO</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C243">
@@ -3613,7 +3613,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>HUAJUAPAN DE LEÓN</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C244">
@@ -3626,7 +3626,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>MIAHUATLÁN DE PORFIRIO DÍAZ</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C245">
@@ -3639,7 +3639,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>NUEVO ZOQUIÁPAM</t>
+          <t>Nuevo Zoquiápam</t>
         </is>
       </c>
       <c r="C246">
@@ -3652,7 +3652,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>OAXACA DE JUÁREZ</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C247">
@@ -3665,7 +3665,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>OCOTLÁN DE MORELOS</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C248">
@@ -3678,7 +3678,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>PINOTEPA DE DON LUIS</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C249">
@@ -3691,7 +3691,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>PUTLA VILLA DE GUERRERO</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C250">
@@ -3704,7 +3704,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>REFORMA DE PINEDA</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C251">
@@ -3717,7 +3717,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>SALINA CRUZ</t>
+          <t>Salina Cruz</t>
         </is>
       </c>
       <c r="C252">
@@ -3730,7 +3730,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN CHAYUCO</t>
+          <t>San Agustín Chayuco</t>
         </is>
       </c>
       <c r="C253">
@@ -3743,7 +3743,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN LOXICHA</t>
+          <t>San Agustín Loxicha</t>
         </is>
       </c>
       <c r="C254">
@@ -3756,7 +3756,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN YATARENI</t>
+          <t>San Agustín Yatareni</t>
         </is>
       </c>
       <c r="C255">
@@ -3769,7 +3769,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>SAN ANTONINO EL ALTO</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C256">
@@ -3782,7 +3782,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>SAN ANTONINO MONTE VERDE</t>
+          <t>San Antonino Monte Verde</t>
         </is>
       </c>
       <c r="C257">
@@ -3795,7 +3795,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>SAN ANTONIO DE LA CAL</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C258">
@@ -3808,7 +3808,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>SAN DIONISIO DEL MAR</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C259">
@@ -3821,7 +3821,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO TELIXTLAHUACA</t>
+          <t>San Francisco Telixtlahuaca</t>
         </is>
       </c>
       <c r="C260">
@@ -3834,7 +3834,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>SAN ILDEFONSO VILLA ALTA</t>
+          <t>San Ildefonso Villa Alta</t>
         </is>
       </c>
       <c r="C261">
@@ -3847,7 +3847,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>SAN JACINTO TLACOTEPEC</t>
+          <t>San Jacinto Tlacotepec</t>
         </is>
       </c>
       <c r="C262">
@@ -3860,7 +3860,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA TUXTEPEC</t>
+          <t>San Juan Bautista Tuxtepec</t>
         </is>
       </c>
       <c r="C263">
@@ -3873,7 +3873,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>SAN JUAN COLORADO</t>
+          <t>San Juan Colorado</t>
         </is>
       </c>
       <c r="C264">
@@ -3886,7 +3886,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>SAN JUAN LACHAO</t>
+          <t>San Juan Lachao</t>
         </is>
       </c>
       <c r="C265">
@@ -3899,7 +3899,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>SAN LORENZO TEXMELÚCAN</t>
+          <t>San Lorenzo Texmelúcan</t>
         </is>
       </c>
       <c r="C266">
@@ -3912,7 +3912,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>SAN MARTÍN LACHILÁ</t>
+          <t>San Martín Lachilá</t>
         </is>
       </c>
       <c r="C267">
@@ -3925,7 +3925,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>SAN MIGUEL AMATITLÁN</t>
+          <t>San Miguel Amatitlán</t>
         </is>
       </c>
       <c r="C268">
@@ -3938,7 +3938,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>SAN MIGUEL DEL PUERTO</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C269">
@@ -3951,7 +3951,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>SAN MIGUEL MIXTEPEC</t>
+          <t>San Miguel Mixtepec</t>
         </is>
       </c>
       <c r="C270">
@@ -3964,7 +3964,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>SAN MIGUEL PANIXTLAHUACA</t>
+          <t>San Miguel Panixtlahuaca</t>
         </is>
       </c>
       <c r="C271">
@@ -3977,7 +3977,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>SAN MIGUEL SANTA FLOR</t>
+          <t>San Miguel Santa Flor</t>
         </is>
       </c>
       <c r="C272">
@@ -3990,7 +3990,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>SAN PEDRO ATOYAC</t>
+          <t>San Pedro Atoyac</t>
         </is>
       </c>
       <c r="C273">
@@ -4003,7 +4003,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>SAN PEDRO COXCALTEPEC CÁNTAROS</t>
+          <t>San Pedro Coxcaltepec Cántaros</t>
         </is>
       </c>
       <c r="C274">
@@ -4016,7 +4016,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>SAN PEDRO JICAYÁN</t>
+          <t>San Pedro Jicayán</t>
         </is>
       </c>
       <c r="C275">
@@ -4029,7 +4029,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>SAN PEDRO Y SAN PABLO TEPOSCOLULA</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C276">
@@ -4042,7 +4042,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>SAN RAYMUNDO JALPAN</t>
+          <t>San Raymundo Jalpan</t>
         </is>
       </c>
       <c r="C277">
@@ -4055,7 +4055,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>SAN SEBASTIÁN TEITIPAC</t>
+          <t>San Sebastián Teitipac</t>
         </is>
       </c>
       <c r="C278">
@@ -4068,7 +4068,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>SAN SEBASTIÁN TUTLA</t>
+          <t>San Sebastián Tutla</t>
         </is>
       </c>
       <c r="C279">
@@ -4081,7 +4081,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>SANTA CATARINA JUQUILA</t>
+          <t>Santa Catarina Juquila</t>
         </is>
       </c>
       <c r="C280">
@@ -4094,7 +4094,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>SANTA CRUZ MIXTEPEC</t>
+          <t>Santa Cruz Mixtepec</t>
         </is>
       </c>
       <c r="C281">
@@ -4107,7 +4107,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>SANTA CRUZ XITLA</t>
+          <t>Santa Cruz Xitla</t>
         </is>
       </c>
       <c r="C282">
@@ -4120,7 +4120,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>SANTA INÉS DEL MONTE</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C283">
@@ -4133,7 +4133,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>SANTIAGO CACALOXTEPEC</t>
+          <t>Santiago Cacaloxtepec</t>
         </is>
       </c>
       <c r="C284">
@@ -4146,7 +4146,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>SANTIAGO CHAZUMBA</t>
+          <t>Santiago Chazumba</t>
         </is>
       </c>
       <c r="C285">
@@ -4159,7 +4159,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>SANTIAGO JAMILTEPEC</t>
+          <t>Santiago Jamiltepec</t>
         </is>
       </c>
       <c r="C286">
@@ -4172,7 +4172,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>SANTIAGO JUXTLAHUACA</t>
+          <t>Santiago Juxtlahuaca</t>
         </is>
       </c>
       <c r="C287">
@@ -4185,7 +4185,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>SANTIAGO PINOTEPA NACIONAL</t>
+          <t>Santiago Pinotepa Nacional</t>
         </is>
       </c>
       <c r="C288">
@@ -4198,7 +4198,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>SANTIAGO TETEPEC</t>
+          <t>Santiago Tetepec</t>
         </is>
       </c>
       <c r="C289">
@@ -4211,7 +4211,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>SANTIAGO ZACATEPEC</t>
+          <t>Santiago Zacatepec</t>
         </is>
       </c>
       <c r="C290">
@@ -4224,7 +4224,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>SANTOS REYES NOPALA</t>
+          <t>Santos Reyes Nopala</t>
         </is>
       </c>
       <c r="C291">
@@ -4237,7 +4237,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>SANTOS REYES TEPEJILLO</t>
+          <t>Santos Reyes Tepejillo</t>
         </is>
       </c>
       <c r="C292">
@@ -4250,7 +4250,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>SILACAYOÁPAM</t>
+          <t>Silacayoápam</t>
         </is>
       </c>
       <c r="C293">
@@ -4263,7 +4263,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>TEZOATLÁN DE SEGURA Y LUNA</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C294">
@@ -4276,7 +4276,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>TLACOLULA DE MATAMOROS</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C295">
@@ -4289,7 +4289,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>TLALIXTAC DE CABRERA</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C296">
@@ -4302,7 +4302,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>TOTONTEPEC VILLA DE MORELOS</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C297">
@@ -4315,7 +4315,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>VILLA DE TUTUTEPEC DE MELCHOR OCAMPO</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C298">
@@ -4328,7 +4328,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>VILLA DE ZAACHILA</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C299">
@@ -4341,7 +4341,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>VILLA HIDALGO</t>
+          <t>Villa Hidalgo</t>
         </is>
       </c>
       <c r="C300">
@@ -4354,7 +4354,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>VILLA SOLA DE VEGA</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C301">
@@ -4367,7 +4367,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>ZAPOTITLÁN LAGUNAS</t>
+          <t>Zapotitlán Lagunas</t>
         </is>
       </c>
       <c r="C302">
@@ -4380,7 +4380,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>ZIMATLÁN DE ÁLVAREZ</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C303">
@@ -4393,7 +4393,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C304">
@@ -4406,12 +4406,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>ACATLÁN</t>
+          <t>Acatlán</t>
         </is>
       </c>
       <c r="C305">
@@ -4424,7 +4424,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>AHUACATLÁN</t>
+          <t>Ahuacatlán</t>
         </is>
       </c>
       <c r="C306">
@@ -4437,7 +4437,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>AHUAZOTEPEC</t>
+          <t>Ahuazotepec</t>
         </is>
       </c>
       <c r="C307">
@@ -4450,7 +4450,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>AHUEHUETITLA</t>
+          <t>Ahuehuetitla</t>
         </is>
       </c>
       <c r="C308">
@@ -4463,7 +4463,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>ALBINO ZERTUCHE</t>
+          <t>Albino Zertuche</t>
         </is>
       </c>
       <c r="C309">
@@ -4476,7 +4476,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>AMOZOC</t>
+          <t>Amozoc</t>
         </is>
       </c>
       <c r="C310">
@@ -4489,7 +4489,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>ATLIXCO</t>
+          <t>Atlixco</t>
         </is>
       </c>
       <c r="C311">
@@ -4502,7 +4502,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>AXUTLA</t>
+          <t>Axutla</t>
         </is>
       </c>
       <c r="C312">
@@ -4515,7 +4515,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>CALPAN</t>
+          <t>Calpan</t>
         </is>
       </c>
       <c r="C313">
@@ -4528,7 +4528,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>CALTEPEC</t>
+          <t>Caltepec</t>
         </is>
       </c>
       <c r="C314">
@@ -4541,7 +4541,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>CHALCHICOMULA DE SESMA</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C315">
@@ -4554,7 +4554,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>CHIAUTLA</t>
+          <t>Chiautla</t>
         </is>
       </c>
       <c r="C316">
@@ -4567,7 +4567,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>CHIAUTZINGO</t>
+          <t>Chiautzingo</t>
         </is>
       </c>
       <c r="C317">
@@ -4580,7 +4580,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>CHIETLA</t>
+          <t>Chietla</t>
         </is>
       </c>
       <c r="C318">
@@ -4593,7 +4593,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>CHIGNAHUAPAN</t>
+          <t>Chignahuapan</t>
         </is>
       </c>
       <c r="C319">
@@ -4606,7 +4606,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>CHILA</t>
+          <t>Chila</t>
         </is>
       </c>
       <c r="C320">
@@ -4619,7 +4619,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>CHILA DE LA SAL</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C321">
@@ -4632,7 +4632,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>CORONANGO</t>
+          <t>Coronango</t>
         </is>
       </c>
       <c r="C322">
@@ -4645,7 +4645,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>CUAUTINCHÁN</t>
+          <t>Cuautinchán</t>
         </is>
       </c>
       <c r="C323">
@@ -4658,7 +4658,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>CUAUTLANCINGO</t>
+          <t>Cuautlancingo</t>
         </is>
       </c>
       <c r="C324">
@@ -4671,7 +4671,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>CUAYUCA DE ANDRADE</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C325">
@@ -4684,7 +4684,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>DOMINGO ARENAS</t>
+          <t>Domingo Arenas</t>
         </is>
       </c>
       <c r="C326">
@@ -4697,7 +4697,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>EPATLÁN</t>
+          <t>Epatlán</t>
         </is>
       </c>
       <c r="C327">
@@ -4710,7 +4710,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C328">
@@ -4723,7 +4723,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>GUADALUPE VICTORIA</t>
+          <t>Guadalupe Victoria</t>
         </is>
       </c>
       <c r="C329">
@@ -4736,7 +4736,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>HERMENEGILDO GALEANA</t>
+          <t>Hermenegildo Galeana</t>
         </is>
       </c>
       <c r="C330">
@@ -4749,7 +4749,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>HUAQUECHULA</t>
+          <t>Huaquechula</t>
         </is>
       </c>
       <c r="C331">
@@ -4762,7 +4762,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>HUEHUETLÁN EL GRANDE</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C332">
@@ -4775,7 +4775,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>HUEJOTZINGO</t>
+          <t>Huejotzingo</t>
         </is>
       </c>
       <c r="C333">
@@ -4788,7 +4788,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>IZÚCAR DE MATAMOROS</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C334">
@@ -4801,7 +4801,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>JUAN C. BONILLA</t>
+          <t>Juan C. Bonilla</t>
         </is>
       </c>
       <c r="C335">
@@ -4814,7 +4814,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>LOS REYES DE JUÁREZ</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C336">
@@ -4827,7 +4827,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>NEALTICAN</t>
+          <t>Nealtican</t>
         </is>
       </c>
       <c r="C337">
@@ -4840,7 +4840,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>NICOLÁS BRAVO</t>
+          <t>Nicolás Bravo</t>
         </is>
       </c>
       <c r="C338">
@@ -4853,7 +4853,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>OCOYUCAN</t>
+          <t>Ocoyucan</t>
         </is>
       </c>
       <c r="C339">
@@ -4866,7 +4866,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>PALMAR DE BRAVO</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C340">
@@ -4879,7 +4879,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>PETLALCINGO</t>
+          <t>Petlalcingo</t>
         </is>
       </c>
       <c r="C341">
@@ -4892,7 +4892,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>PIAXTLA</t>
+          <t>Piaxtla</t>
         </is>
       </c>
       <c r="C342">
@@ -4905,7 +4905,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="C343">
@@ -4918,7 +4918,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS CHOLULA</t>
+          <t>San Andrés Cholula</t>
         </is>
       </c>
       <c r="C344">
@@ -4931,7 +4931,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>SAN FELIPE TEOTLALCINGO</t>
+          <t>San Felipe Teotlalcingo</t>
         </is>
       </c>
       <c r="C345">
@@ -4944,7 +4944,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>SAN GREGORIO ATZOMPA</t>
+          <t>San Gregorio Atzompa</t>
         </is>
       </c>
       <c r="C346">
@@ -4957,7 +4957,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>SAN JERÓNIMO TECUANIPAN</t>
+          <t>San Jerónimo Tecuanipan</t>
         </is>
       </c>
       <c r="C347">
@@ -4970,7 +4970,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>SAN JERÓNIMO XAYACATLÁN</t>
+          <t>San Jerónimo Xayacatlán</t>
         </is>
       </c>
       <c r="C348">
@@ -4983,7 +4983,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>SAN JUAN ATZOMPA</t>
+          <t>San Juan Atzompa</t>
         </is>
       </c>
       <c r="C349">
@@ -4996,7 +4996,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>SAN MARTÍN TEXMELUCAN</t>
+          <t>San Martín Texmelucan</t>
         </is>
       </c>
       <c r="C350">
@@ -5009,7 +5009,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>SAN MARTÍN TOTOLTEPEC</t>
+          <t>San Martín Totoltepec</t>
         </is>
       </c>
       <c r="C351">
@@ -5022,7 +5022,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>SAN MATÍAS TLALANCALECA</t>
+          <t>San Matías Tlalancaleca</t>
         </is>
       </c>
       <c r="C352">
@@ -5035,7 +5035,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>SAN PEDRO CHOLULA</t>
+          <t>San Pedro Cholula</t>
         </is>
       </c>
       <c r="C353">
@@ -5048,7 +5048,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>SAN PEDRO YELOIXTLAHUACA</t>
+          <t>San Pedro Yeloixtlahuaca</t>
         </is>
       </c>
       <c r="C354">
@@ -5061,7 +5061,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>SAN SALVADOR EL SECO</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C355">
@@ -5074,7 +5074,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>SAN SALVADOR EL VERDE</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C356">
@@ -5087,7 +5087,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>SANTA INÉS AHUATEMPAN</t>
+          <t>Santa Inés Ahuatempan</t>
         </is>
       </c>
       <c r="C357">
@@ -5100,7 +5100,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>SANTA ISABEL CHOLULA</t>
+          <t>Santa Isabel Cholula</t>
         </is>
       </c>
       <c r="C358">
@@ -5113,7 +5113,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>SANTIAGO MIAHUATLÁN</t>
+          <t>Santiago Miahuatlán</t>
         </is>
       </c>
       <c r="C359">
@@ -5126,7 +5126,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>SANTO TOMÁS HUEYOTLIPAN</t>
+          <t>Santo Tomás Hueyotlipan</t>
         </is>
       </c>
       <c r="C360">
@@ -5139,7 +5139,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>TECALI DE HERRERA</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C361">
@@ -5152,7 +5152,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>TECAMACHALCO</t>
+          <t>Tecamachalco</t>
         </is>
       </c>
       <c r="C362">
@@ -5165,7 +5165,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>TECOMATLÁN</t>
+          <t>Tecomatlán</t>
         </is>
       </c>
       <c r="C363">
@@ -5178,7 +5178,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>TEHUACÁN</t>
+          <t>Tehuacán</t>
         </is>
       </c>
       <c r="C364">
@@ -5191,7 +5191,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>TEHUITZINGO</t>
+          <t>Tehuitzingo</t>
         </is>
       </c>
       <c r="C365">
@@ -5204,7 +5204,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>TEOPANTLÁN</t>
+          <t>Teopantlán</t>
         </is>
       </c>
       <c r="C366">
@@ -5217,7 +5217,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>TEPEACA</t>
+          <t>Tepeaca</t>
         </is>
       </c>
       <c r="C367">
@@ -5230,7 +5230,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>TEPEOJUMA</t>
+          <t>Tepeojuma</t>
         </is>
       </c>
       <c r="C368">
@@ -5243,7 +5243,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>TEPEXI DE RODRÍGUEZ</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C369">
@@ -5256,7 +5256,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>TEZIUTLÁN</t>
+          <t>Teziutlán</t>
         </is>
       </c>
       <c r="C370">
@@ -5269,7 +5269,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>TIANGUISMANALCO</t>
+          <t>Tianguismanalco</t>
         </is>
       </c>
       <c r="C371">
@@ -5282,7 +5282,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>TILAPA</t>
+          <t>Tilapa</t>
         </is>
       </c>
       <c r="C372">
@@ -5295,7 +5295,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>TLACOTEPEC DE BENITO JUÁREZ</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C373">
@@ -5308,7 +5308,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>TLAHUAPAN</t>
+          <t>Tlahuapan</t>
         </is>
       </c>
       <c r="C374">
@@ -5321,7 +5321,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>TLAOLA</t>
+          <t>Tlaola</t>
         </is>
       </c>
       <c r="C375">
@@ -5334,7 +5334,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>TLAPANALÁ</t>
+          <t>Tlapanalá</t>
         </is>
       </c>
       <c r="C376">
@@ -5347,7 +5347,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>TLATLAUQUITEPEC</t>
+          <t>Tlatlauquitepec</t>
         </is>
       </c>
       <c r="C377">
@@ -5360,7 +5360,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>TLAXCO</t>
+          <t>Tlaxco</t>
         </is>
       </c>
       <c r="C378">
@@ -5373,7 +5373,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>TOCHIMILCO</t>
+          <t>Tochimilco</t>
         </is>
       </c>
       <c r="C379">
@@ -5386,7 +5386,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>TOCHTEPEC</t>
+          <t>Tochtepec</t>
         </is>
       </c>
       <c r="C380">
@@ -5399,7 +5399,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>TULCINGO</t>
+          <t>Tulcingo</t>
         </is>
       </c>
       <c r="C381">
@@ -5412,7 +5412,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>XICOTEPEC</t>
+          <t>Xicotepec</t>
         </is>
       </c>
       <c r="C382">
@@ -5425,7 +5425,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>XICOTLÁN</t>
+          <t>Xicotlán</t>
         </is>
       </c>
       <c r="C383">
@@ -5438,7 +5438,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>XOCHILTEPEC</t>
+          <t>Xochiltepec</t>
         </is>
       </c>
       <c r="C384">
@@ -5451,7 +5451,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>YEHUALTEPEC</t>
+          <t>Yehualtepec</t>
         </is>
       </c>
       <c r="C385">
@@ -5464,7 +5464,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>ZACAPOAXTLA</t>
+          <t>Zacapoaxtla</t>
         </is>
       </c>
       <c r="C386">
@@ -5477,7 +5477,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>ZACATLÁN</t>
+          <t>Zacatlán</t>
         </is>
       </c>
       <c r="C387">
@@ -5490,7 +5490,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>ZARAGOZA</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="C388">
@@ -5503,7 +5503,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>ZIHUATEUTLA</t>
+          <t>Zihuateutla</t>
         </is>
       </c>
       <c r="C389">
@@ -5516,7 +5516,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>ZINACATEPEC</t>
+          <t>Zinacatepec</t>
         </is>
       </c>
       <c r="C390">
@@ -5529,7 +5529,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C391">
@@ -5542,12 +5542,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>ARROYO SECO</t>
+          <t>Arroyo Seco</t>
         </is>
       </c>
       <c r="C392">
@@ -5560,7 +5560,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>CADEREYTA DE MONTES</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C393">
@@ -5573,7 +5573,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>COLÓN</t>
+          <t>Colón</t>
         </is>
       </c>
       <c r="C394">
@@ -5586,7 +5586,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>EL MARQUÉS</t>
+          <t>El Marqués</t>
         </is>
       </c>
       <c r="C395">
@@ -5599,7 +5599,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>PINAL DE AMOLES</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C396">
@@ -5612,7 +5612,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="C397">
@@ -5625,7 +5625,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>SAN JUAN DEL RÍO</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C398">
@@ -5638,7 +5638,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C399">
@@ -5651,12 +5651,12 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>QUINTANA ROO</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>OTHÓN P. BLANCO</t>
+          <t>Othón P. Blanco</t>
         </is>
       </c>
       <c r="C400">
@@ -5669,7 +5669,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C401">
@@ -5682,12 +5682,12 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>CIUDAD DEL MAÍZ</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C402">
@@ -5700,7 +5700,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>CIUDAD VALLES</t>
+          <t>Ciudad Valles</t>
         </is>
       </c>
       <c r="C403">
@@ -5713,7 +5713,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>EBANO</t>
+          <t>Ebano</t>
         </is>
       </c>
       <c r="C404">
@@ -5726,7 +5726,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>MEXQUITIC DE CARMONA</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C405">
@@ -5739,7 +5739,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>RAYÓN</t>
+          <t>Rayón</t>
         </is>
       </c>
       <c r="C406">
@@ -5752,7 +5752,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="C407">
@@ -5765,7 +5765,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>TANQUIÁN DE ESCOBEDO</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C408">
@@ -5778,7 +5778,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>VANEGAS</t>
+          <t>Vanegas</t>
         </is>
       </c>
       <c r="C409">
@@ -5791,7 +5791,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>VILLA DE REYES</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C410">
@@ -5804,7 +5804,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C411">
@@ -5817,12 +5817,12 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>BADIRAGUATO</t>
+          <t>Badiraguato</t>
         </is>
       </c>
       <c r="C412">
@@ -5835,7 +5835,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>CULIACÁN</t>
+          <t>Culiacán</t>
         </is>
       </c>
       <c r="C413">
@@ -5848,7 +5848,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>ELOTA</t>
+          <t>Elota</t>
         </is>
       </c>
       <c r="C414">
@@ -5861,7 +5861,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>MAZATLÁN</t>
+          <t>Mazatlán</t>
         </is>
       </c>
       <c r="C415">
@@ -5874,7 +5874,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C416">
@@ -5887,12 +5887,12 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>SONORA</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>ALAMOS</t>
+          <t>Alamos</t>
         </is>
       </c>
       <c r="C417">
@@ -5905,7 +5905,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C418">
@@ -5918,12 +5918,12 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="C419">
@@ -5936,7 +5936,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>HUIMANGUILLO</t>
+          <t>Huimanguillo</t>
         </is>
       </c>
       <c r="C420">
@@ -5949,7 +5949,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>JALPA DE MÉNDEZ</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C421">
@@ -5962,7 +5962,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>TENOSIQUE</t>
+          <t>Tenosique</t>
         </is>
       </c>
       <c r="C422">
@@ -5975,7 +5975,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C423">
@@ -5988,12 +5988,12 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>TAMAULIPAS</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>BUSTAMANTE</t>
+          <t>Bustamante</t>
         </is>
       </c>
       <c r="C424">
@@ -6006,7 +6006,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>CIUDAD MADERO</t>
+          <t>Ciudad Madero</t>
         </is>
       </c>
       <c r="C425">
@@ -6019,7 +6019,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>EL MANTE</t>
+          <t>El Mante</t>
         </is>
       </c>
       <c r="C426">
@@ -6032,7 +6032,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>MATAMOROS</t>
+          <t>Matamoros</t>
         </is>
       </c>
       <c r="C427">
@@ -6045,7 +6045,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>NUEVO LAREDO</t>
+          <t>Nuevo Laredo</t>
         </is>
       </c>
       <c r="C428">
@@ -6058,7 +6058,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>TAMPICO</t>
+          <t>Tampico</t>
         </is>
       </c>
       <c r="C429">
@@ -6071,7 +6071,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C430">
@@ -6084,12 +6084,12 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>APETATITLÁN DE ANTONIO CARVAJAL</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C431">
@@ -6102,7 +6102,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>APIZACO</t>
+          <t>Apizaco</t>
         </is>
       </c>
       <c r="C432">
@@ -6115,7 +6115,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>CALPULALPAN</t>
+          <t>Calpulalpan</t>
         </is>
       </c>
       <c r="C433">
@@ -6128,7 +6128,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>CHIAUTEMPAN</t>
+          <t>Chiautempan</t>
         </is>
       </c>
       <c r="C434">
@@ -6141,7 +6141,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>CONTLA DE JUAN CUAMATZI</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C435">
@@ -6154,7 +6154,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>HUAMANTLA</t>
+          <t>Huamantla</t>
         </is>
       </c>
       <c r="C436">
@@ -6167,7 +6167,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>HUEYOTLIPAN</t>
+          <t>Hueyotlipan</t>
         </is>
       </c>
       <c r="C437">
@@ -6180,7 +6180,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>IXTACUIXTLA DE MARIANO MATAMOROS</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C438">
@@ -6193,7 +6193,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>LA MAGDALENA TLALTELULCO</t>
+          <t>La Magdalena Tlaltelulco</t>
         </is>
       </c>
       <c r="C439">
@@ -6206,7 +6206,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>MAZATECOCHCO DE JOSÉ MARÍA MORELOS</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C440">
@@ -6219,7 +6219,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>NATÍVITAS</t>
+          <t>Natívitas</t>
         </is>
       </c>
       <c r="C441">
@@ -6232,7 +6232,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C442">
@@ -6245,7 +6245,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>PAPALOTLA DE XICOHTÉNCATL</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C443">
@@ -6258,7 +6258,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>SAN DAMIÁN TEXÓLOC</t>
+          <t>San Damián Texóloc</t>
         </is>
       </c>
       <c r="C444">
@@ -6271,7 +6271,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO TETLANOHCAN</t>
+          <t>San Francisco Tetlanohcan</t>
         </is>
       </c>
       <c r="C445">
@@ -6284,7 +6284,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>SAN JERÓNIMO ZACUALPAN</t>
+          <t>San Jerónimo Zacualpan</t>
         </is>
       </c>
       <c r="C446">
@@ -6297,7 +6297,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>SAN JUAN HUACTZINCO</t>
+          <t>San Juan Huactzinco</t>
         </is>
       </c>
       <c r="C447">
@@ -6310,7 +6310,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>SAN PABLO DEL MONTE</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C448">
@@ -6323,7 +6323,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>SANTA APOLONIA TEACALCO</t>
+          <t>Santa Apolonia Teacalco</t>
         </is>
       </c>
       <c r="C449">
@@ -6336,7 +6336,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>SANTA CATARINA AYOMETLA</t>
+          <t>Santa Catarina Ayometla</t>
         </is>
       </c>
       <c r="C450">
@@ -6349,7 +6349,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>TENANCINGO</t>
+          <t>Tenancingo</t>
         </is>
       </c>
       <c r="C451">
@@ -6362,7 +6362,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>TEOLOCHOLCO</t>
+          <t>Teolocholco</t>
         </is>
       </c>
       <c r="C452">
@@ -6375,7 +6375,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>TEPEYANCO</t>
+          <t>Tepeyanco</t>
         </is>
       </c>
       <c r="C453">
@@ -6388,7 +6388,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>TERRENATE</t>
+          <t>Terrenate</t>
         </is>
       </c>
       <c r="C454">
@@ -6401,7 +6401,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>TETLA DE LA SOLIDARIDAD</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C455">
@@ -6414,7 +6414,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>TETLATLAHUCA</t>
+          <t>Tetlatlahuca</t>
         </is>
       </c>
       <c r="C456">
@@ -6427,7 +6427,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="C457">
@@ -6440,7 +6440,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>TLAXCO</t>
+          <t>Tlaxco</t>
         </is>
       </c>
       <c r="C458">
@@ -6453,7 +6453,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>XICOHTZINCO</t>
+          <t>Xicohtzinco</t>
         </is>
       </c>
       <c r="C459">
@@ -6466,7 +6466,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>ZACATELCO</t>
+          <t>Zacatelco</t>
         </is>
       </c>
       <c r="C460">
@@ -6479,7 +6479,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C461">
@@ -6492,12 +6492,12 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>ACAYUCAN</t>
+          <t>Acayucan</t>
         </is>
       </c>
       <c r="C462">
@@ -6510,7 +6510,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>ACTOPAN</t>
+          <t>Actopan</t>
         </is>
       </c>
       <c r="C463">
@@ -6523,7 +6523,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>ALTO LUCERO DE GUTIÉRREZ BARRIOS</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C464">
@@ -6536,7 +6536,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>ATZALAN</t>
+          <t>Atzalan</t>
         </is>
       </c>
       <c r="C465">
@@ -6549,7 +6549,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>BANDERILLA</t>
+          <t>Banderilla</t>
         </is>
       </c>
       <c r="C466">
@@ -6562,7 +6562,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>CATEMACO</t>
+          <t>Catemaco</t>
         </is>
       </c>
       <c r="C467">
@@ -6575,7 +6575,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>CHICONAMEL</t>
+          <t>Chiconamel</t>
         </is>
       </c>
       <c r="C468">
@@ -6588,7 +6588,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>CHICONTEPEC</t>
+          <t>Chicontepec</t>
         </is>
       </c>
       <c r="C469">
@@ -6601,7 +6601,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>COATZACOALCOS</t>
+          <t>Coatzacoalcos</t>
         </is>
       </c>
       <c r="C470">
@@ -6614,7 +6614,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>COSCOMATEPEC</t>
+          <t>Coscomatepec</t>
         </is>
       </c>
       <c r="C471">
@@ -6627,7 +6627,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>COYUTLA</t>
+          <t>Coyutla</t>
         </is>
       </c>
       <c r="C472">
@@ -6640,7 +6640,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>CUITLÁHUAC</t>
+          <t>Cuitláhuac</t>
         </is>
       </c>
       <c r="C473">
@@ -6653,7 +6653,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>CÓRDOBA</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="C474">
@@ -6666,7 +6666,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>ESPINAL</t>
+          <t>Espinal</t>
         </is>
       </c>
       <c r="C475">
@@ -6679,7 +6679,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>HIDALGOTITLÁN</t>
+          <t>Hidalgotitlán</t>
         </is>
       </c>
       <c r="C476">
@@ -6692,7 +6692,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>HUATUSCO</t>
+          <t>Huatusco</t>
         </is>
       </c>
       <c r="C477">
@@ -6705,7 +6705,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>IGNACIO DE LA LLAVE</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C478">
@@ -6718,7 +6718,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>IXHUATLÁN DE MADERO</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C479">
@@ -6731,7 +6731,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>JESÚS CARRANZA</t>
+          <t>Jesús Carranza</t>
         </is>
       </c>
       <c r="C480">
@@ -6744,7 +6744,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>JOSÉ AZUETA</t>
+          <t>José Azueta</t>
         </is>
       </c>
       <c r="C481">
@@ -6757,7 +6757,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>JUCHIQUE DE FERRER</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C482">
@@ -6770,7 +6770,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>LA ANTIGUA</t>
+          <t>La Antigua</t>
         </is>
       </c>
       <c r="C483">
@@ -6783,7 +6783,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>LAS CHOAPAS</t>
+          <t>Las Choapas</t>
         </is>
       </c>
       <c r="C484">
@@ -6796,7 +6796,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>MARTÍNEZ DE LA TORRE</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C485">
@@ -6809,7 +6809,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>MINATITLÁN</t>
+          <t>Minatitlán</t>
         </is>
       </c>
       <c r="C486">
@@ -6822,7 +6822,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>NANCHITAL DE LÁZARO CÁRDENAS DEL RÍO</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C487">
@@ -6835,7 +6835,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>OMEALCA</t>
+          <t>Omealca</t>
         </is>
       </c>
       <c r="C488">
@@ -6848,7 +6848,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>ORIZABA</t>
+          <t>Orizaba</t>
         </is>
       </c>
       <c r="C489">
@@ -6861,7 +6861,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>PAPANTLA</t>
+          <t>Papantla</t>
         </is>
       </c>
       <c r="C490">
@@ -6874,7 +6874,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>PASO DE OVEJAS</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C491">
@@ -6887,7 +6887,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>PLAYA VICENTE</t>
+          <t>Playa Vicente</t>
         </is>
       </c>
       <c r="C492">
@@ -6900,7 +6900,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>POZA RICA DE HIDALGO</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C493">
@@ -6913,7 +6913,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>PÁNUCO</t>
+          <t>Pánuco</t>
         </is>
       </c>
       <c r="C494">
@@ -6926,7 +6926,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS TUXTLA</t>
+          <t>San Andrés Tuxtla</t>
         </is>
       </c>
       <c r="C495">
@@ -6939,7 +6939,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>SAN JUAN EVANGELISTA</t>
+          <t>San Juan Evangelista</t>
         </is>
       </c>
       <c r="C496">
@@ -6952,7 +6952,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>TANTOYUCA</t>
+          <t>Tantoyuca</t>
         </is>
       </c>
       <c r="C497">
@@ -6965,7 +6965,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>TEXCATEPEC</t>
+          <t>Texcatepec</t>
         </is>
       </c>
       <c r="C498">
@@ -6978,7 +6978,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>TEZONAPA</t>
+          <t>Tezonapa</t>
         </is>
       </c>
       <c r="C499">
@@ -6991,7 +6991,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>TIERRA BLANCA</t>
+          <t>Tierra Blanca</t>
         </is>
       </c>
       <c r="C500">
@@ -7004,7 +7004,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>TLALIXCOYAN</t>
+          <t>Tlalixcoyan</t>
         </is>
       </c>
       <c r="C501">
@@ -7017,7 +7017,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>TOMATLÁN</t>
+          <t>Tomatlán</t>
         </is>
       </c>
       <c r="C502">
@@ -7030,7 +7030,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C503">
@@ -7043,7 +7043,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>URSULO GALVÁN</t>
+          <t>Ursulo Galván</t>
         </is>
       </c>
       <c r="C504">
@@ -7056,7 +7056,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>VERACRUZ</t>
+          <t>Veracruz</t>
         </is>
       </c>
       <c r="C505">
@@ -7069,7 +7069,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>XALAPA</t>
+          <t>Xalapa</t>
         </is>
       </c>
       <c r="C506">
@@ -7082,7 +7082,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>YANGA</t>
+          <t>Yanga</t>
         </is>
       </c>
       <c r="C507">
@@ -7095,7 +7095,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>ÁLAMO TEMAPACHE</t>
+          <t>Álamo Temapache</t>
         </is>
       </c>
       <c r="C508">
@@ -7108,7 +7108,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C509">
@@ -7121,12 +7121,12 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>YUCATÁN</t>
+          <t>Yucatán</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>IZAMAL</t>
+          <t>Izamal</t>
         </is>
       </c>
       <c r="C510">
@@ -7139,7 +7139,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C511">
@@ -7152,12 +7152,12 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>GENERAL PÁNFILO NATERA</t>
+          <t>General Pánfilo Natera</t>
         </is>
       </c>
       <c r="C512">
@@ -7170,7 +7170,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>OJOCALIENTE</t>
+          <t>Ojocaliente</t>
         </is>
       </c>
       <c r="C513">
@@ -7183,7 +7183,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>PINOS</t>
+          <t>Pinos</t>
         </is>
       </c>
       <c r="C514">
@@ -7196,7 +7196,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>TEÚL DE GONZÁLEZ ORTEGA</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C515">
@@ -7209,7 +7209,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>TLALTENANGO DE SÁNCHEZ ROMÁN</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C516">
@@ -7222,7 +7222,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>VILLA DE COS</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C517">
@@ -7235,7 +7235,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>VILLA GONZÁLEZ ORTEGA</t>
+          <t>Villa González Ortega</t>
         </is>
       </c>
       <c r="C518">
@@ -7248,7 +7248,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>VILLANUEVA</t>
+          <t>Villanueva</t>
         </is>
       </c>
       <c r="C519">
@@ -7261,7 +7261,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C520">
@@ -7274,7 +7274,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C521">
@@ -7282,41 +7282,6 @@
       </c>
       <c r="D521">
         <v>1</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 789,030</t>
-        </is>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>Noviembre de 2024</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/CONNECTICUT_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/CONNECTICUT_2023.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Acapetahua</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Amatenango De La Frontera</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Amatenango Del Valle</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Arriaga</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Bochil</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Cacahoatán</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Chilón</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -577,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Copainalá</t>
@@ -590,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -603,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -616,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -629,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -642,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -655,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Jiquipilas</t>
@@ -668,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -681,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>La Grandeza</t>
@@ -694,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -707,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -720,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Las Rosas</t>
@@ -733,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -746,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -759,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -772,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -785,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Pantelhó</t>
@@ -798,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -811,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -824,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -837,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -850,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Tapalapa</t>
@@ -863,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Tecpatán</t>
@@ -876,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Teopisca</t>
@@ -889,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Tumbalá</t>
@@ -902,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Tuxtla Chico</t>
@@ -915,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Unión Juárez</t>
@@ -928,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -941,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Yajalón</t>
@@ -954,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -985,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -998,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1029,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1042,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -1055,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Cuajimalpa De Morelos</t>
@@ -1068,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1081,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1094,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1107,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1120,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1133,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1146,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1159,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -1172,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -1185,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1216,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Piedras Negras</t>
@@ -1229,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -1242,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -1255,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1286,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -1299,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1330,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Amecameca</t>
@@ -1343,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Apaxco</t>
@@ -1356,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Atizapán</t>
@@ -1369,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Atizapán De Zaragoza</t>
@@ -1382,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -1395,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Chimalhuacán</t>
@@ -1408,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Coacalco De Berriozábal</t>
@@ -1421,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Cuautitlán</t>
@@ -1434,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -1447,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -1460,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Hueypoxtla</t>
@@ -1473,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Huixquilucan</t>
@@ -1486,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Ixtapaluca</t>
@@ -1499,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -1512,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -1525,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Jilotepec</t>
@@ -1538,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Jiquipilco</t>
@@ -1551,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -1564,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Lerma</t>
@@ -1577,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -1590,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -1603,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -1616,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -1629,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -1642,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -1655,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Temascaltepec</t>
@@ -1668,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -1681,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Tenango Del Valle</t>
@@ -1694,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Tepetlixpa</t>
@@ -1707,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Texcaltitlán</t>
@@ -1720,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Tlalmanalco</t>
@@ -1733,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1746,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -1759,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1772,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Tultepec</t>
@@ -1785,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -1798,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -1811,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Zinacantepec</t>
@@ -1824,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1855,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Apaseo El Alto</t>
@@ -1868,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Atarjea</t>
@@ -1881,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -1894,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -1907,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1920,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -1933,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>León</t>
@@ -1946,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Moroleón</t>
@@ -1959,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -1972,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -1985,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -1998,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -2011,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Santiago Maravatío</t>
@@ -2024,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -2037,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -2050,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2081,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Acatepec</t>
@@ -2094,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -2107,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Alcozauca De Guerrero</t>
@@ -2120,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Alpoyeca</t>
@@ -2133,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -2146,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -2159,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -2172,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -2185,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -2198,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Eduardo Neri</t>
@@ -2211,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Huamuxtitlán</t>
@@ -2224,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Igualapa</t>
@@ -2237,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Ixcateopan De Cuauhtémoc</t>
@@ -2250,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -2263,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Metlatónoc</t>
@@ -2276,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Mochitlán</t>
@@ -2289,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Olinalá</t>
@@ -2302,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -2315,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Pilcaya</t>
@@ -2328,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Pungarabato</t>
@@ -2341,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -2354,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -2367,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -2380,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Tixtla De Guerrero</t>
@@ -2393,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -2406,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -2419,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Xalpatláhuac</t>
@@ -2432,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Xochihuehuetlán</t>
@@ -2445,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Zapotitlán Tablas</t>
@@ -2458,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2489,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Ajacuba</t>
@@ -2502,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Alfajayucan</t>
@@ -2515,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Apan</t>
@@ -2528,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Cardonal</t>
@@ -2541,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Chapantongo</t>
@@ -2554,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -2567,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Huehuetla</t>
@@ -2580,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -2593,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -2606,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Lolotla</t>
@@ -2619,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -2632,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Metztitlán</t>
@@ -2645,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Mineral Del Chico</t>
@@ -2658,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Molango De Escamilla</t>
@@ -2671,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -2684,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Progreso De Obregón</t>
@@ -2697,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>San Salvador</t>
@@ -2710,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Tepeapulco</t>
@@ -2723,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Tianguistengo</t>
@@ -2736,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Tula De Allende</t>
@@ -2749,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Xochicoatlán</t>
@@ -2762,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Zacualtipán De Ángeles</t>
@@ -2775,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Zempoala</t>
@@ -2788,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -2801,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2832,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Atengo</t>
@@ -2845,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Cuquío</t>
@@ -2858,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -2871,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Ixtlahuacán Del Río</t>
@@ -2884,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -2897,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -2910,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -2923,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Quitupan</t>
@@ -2936,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -2949,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -2962,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Tototlán</t>
@@ -2975,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Valle De Juárez</t>
@@ -2988,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Zacoalco De Torres</t>
@@ -3001,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Zapotlán El Grande</t>
@@ -3014,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3045,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Coahuayana</t>
@@ -3058,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Cotija</t>
@@ -3071,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -3084,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Jiquilpan</t>
@@ -3097,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Lagunillas</t>
@@ -3110,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -3123,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Marcos Castellanos</t>
@@ -3136,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -3149,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Parácuaro</t>
@@ -3162,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Peribán</t>
@@ -3175,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -3188,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -3201,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Sahuayo</t>
@@ -3214,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Tangamandapio</t>
@@ -3227,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -3240,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Ziracuaretiro</t>
@@ -3253,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -3266,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3297,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Ayala</t>
@@ -3310,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -3323,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -3336,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Jonacatepec</t>
@@ -3349,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Temoac</t>
@@ -3362,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Totolapan</t>
@@ -3375,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -3388,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Yecapixtla</t>
@@ -3401,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Zacualpan</t>
@@ -3414,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3445,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3476,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Montemorelos</t>
@@ -3489,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -3502,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3533,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Asunción Cacalotepec</t>
@@ -3546,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Asunción Nochixtlán</t>
@@ -3559,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Ciénega De Zimatlán</t>
@@ -3572,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Constancia Del Rosario</t>
@@ -3585,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Huajuapan De León</t>
@@ -3598,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Tlaxiaco</t>
@@ -3611,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Huajuapan De León</t>
@@ -3624,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Miahuatlán De Porfirio Díaz</t>
@@ -3637,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Nuevo Zoquiápam</t>
@@ -3650,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -3663,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Ocotlán De Morelos</t>
@@ -3676,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Pinotepa De Don Luis</t>
@@ -3689,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -3702,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Reforma De Pineda</t>
@@ -3715,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Salina Cruz</t>
@@ -3728,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>San Agustín Chayuco</t>
@@ -3741,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>San Agustín Loxicha</t>
@@ -3754,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>San Agustín Yatareni</t>
@@ -3767,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>San Antonino El Alto</t>
@@ -3780,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -3793,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>San Antonio De La Cal</t>
@@ -3806,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>San Dionisio Del Mar</t>
@@ -3819,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>San Francisco Telixtlahuaca</t>
@@ -3832,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>San Ildefonso Villa Alta</t>
@@ -3845,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>San Jacinto Tlacotepec</t>
@@ -3858,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -3871,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>San Juan Colorado</t>
@@ -3884,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>San Juan Lachao</t>
@@ -3897,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>San Lorenzo Texmelúcan</t>
@@ -3910,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>San Martín Lachilá</t>
@@ -3923,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>San Miguel Amatitlán</t>
@@ -3936,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>San Miguel Del Puerto</t>
@@ -3949,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>San Miguel Mixtepec</t>
@@ -3962,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>San Miguel Panixtlahuaca</t>
@@ -3975,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>San Miguel Santa Flor</t>
@@ -3988,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>San Pedro Atoyac</t>
@@ -4001,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>San Pedro Coxcaltepec Cántaros</t>
@@ -4014,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>San Pedro Jicayán</t>
@@ -4027,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>San Pedro Y San Pablo Teposcolula</t>
@@ -4040,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>San Raymundo Jalpan</t>
@@ -4053,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>San Sebastián Teitipac</t>
@@ -4066,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>San Sebastián Tutla</t>
@@ -4079,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Santa Catarina Juquila</t>
@@ -4092,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Santa Cruz Mixtepec</t>
@@ -4105,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>Santa Cruz Xitla</t>
@@ -4118,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>Santa Inés Del Monte</t>
@@ -4131,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Santiago Cacaloxtepec</t>
@@ -4144,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Santiago Chazumba</t>
@@ -4157,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -4170,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -4183,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -4196,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Santiago Tetepec</t>
@@ -4209,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Santiago Zacatepec</t>
@@ -4222,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -4235,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Santos Reyes Tepejillo</t>
@@ -4248,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Silacayoápam</t>
@@ -4261,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Tezoatlán De Segura Y Luna</t>
@@ -4274,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -4287,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Tlalixtac De Cabrera</t>
@@ -4300,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Totontepec Villa De Morelos</t>
@@ -4313,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Villa De Tututepec De Melchor Ocampo</t>
@@ -4326,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Villa De Zaachila</t>
@@ -4339,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -4352,6 +5762,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>Villa Sola De Vega</t>
@@ -4365,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Zapotitlán Lagunas</t>
@@ -4378,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Zimatlán De Álvarez</t>
@@ -4391,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4422,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Ahuacatlán</t>
@@ -4435,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Ahuazotepec</t>
@@ -4448,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Ahuehuetitla</t>
@@ -4461,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Albino Zertuche</t>
@@ -4474,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Amozoc</t>
@@ -4487,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -4500,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Axutla</t>
@@ -4513,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Calpan</t>
@@ -4526,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Caltepec</t>
@@ -4539,6 +6014,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>Chalchicomula De Sesma</t>
@@ -4552,6 +6032,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -4565,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>Chiautzingo</t>
@@ -4578,6 +6068,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -4591,6 +6086,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -4604,6 +6104,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Chila</t>
@@ -4617,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Chila De La Sal</t>
@@ -4630,6 +6140,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>Coronango</t>
@@ -4643,6 +6158,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>Cuautinchán</t>
@@ -4656,6 +6176,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>Cuautlancingo</t>
@@ -4669,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Cuayuca De Andrade</t>
@@ -4682,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Domingo Arenas</t>
@@ -4695,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Epatlán</t>
@@ -4708,6 +6248,11 @@
       </c>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -4721,6 +6266,11 @@
       </c>
     </row>
     <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -4734,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>Hermenegildo Galeana</t>
@@ -4747,6 +6302,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -4760,6 +6320,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>Huehuetlán El Grande</t>
@@ -4773,6 +6338,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -4786,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -4799,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>Juan C. Bonilla</t>
@@ -4812,6 +6392,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>Los Reyes De Juárez</t>
@@ -4825,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Nealtican</t>
@@ -4838,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>Nicolás Bravo</t>
@@ -4851,6 +6446,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>Ocoyucan</t>
@@ -4864,6 +6464,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>Palmar De Bravo</t>
@@ -4877,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>Petlalcingo</t>
@@ -4890,6 +6500,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>Piaxtla</t>
@@ -4903,6 +6518,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -4916,6 +6536,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>San Andrés Cholula</t>
@@ -4929,6 +6554,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>San Felipe Teotlalcingo</t>
@@ -4942,6 +6572,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>San Gregorio Atzompa</t>
@@ -4955,6 +6590,11 @@
       </c>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>San Jerónimo Tecuanipan</t>
@@ -4968,6 +6608,11 @@
       </c>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>San Jerónimo Xayacatlán</t>
@@ -4981,6 +6626,11 @@
       </c>
     </row>
     <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>San Juan Atzompa</t>
@@ -4994,6 +6644,11 @@
       </c>
     </row>
     <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -5007,6 +6662,11 @@
       </c>
     </row>
     <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>San Martín Totoltepec</t>
@@ -5020,6 +6680,11 @@
       </c>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>San Matías Tlalancaleca</t>
@@ -5033,6 +6698,11 @@
       </c>
     </row>
     <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -5046,6 +6716,11 @@
       </c>
     </row>
     <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>San Pedro Yeloixtlahuaca</t>
@@ -5059,6 +6734,11 @@
       </c>
     </row>
     <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
           <t>San Salvador El Seco</t>
@@ -5072,6 +6752,11 @@
       </c>
     </row>
     <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B356" t="inlineStr">
         <is>
           <t>San Salvador El Verde</t>
@@ -5085,6 +6770,11 @@
       </c>
     </row>
     <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>Santa Inés Ahuatempan</t>
@@ -5098,6 +6788,11 @@
       </c>
     </row>
     <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B358" t="inlineStr">
         <is>
           <t>Santa Isabel Cholula</t>
@@ -5111,6 +6806,11 @@
       </c>
     </row>
     <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B359" t="inlineStr">
         <is>
           <t>Santiago Miahuatlán</t>
@@ -5124,6 +6824,11 @@
       </c>
     </row>
     <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B360" t="inlineStr">
         <is>
           <t>Santo Tomás Hueyotlipan</t>
@@ -5137,6 +6842,11 @@
       </c>
     </row>
     <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B361" t="inlineStr">
         <is>
           <t>Tecali De Herrera</t>
@@ -5150,6 +6860,11 @@
       </c>
     </row>
     <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B362" t="inlineStr">
         <is>
           <t>Tecamachalco</t>
@@ -5163,6 +6878,11 @@
       </c>
     </row>
     <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>Tecomatlán</t>
@@ -5176,6 +6896,11 @@
       </c>
     </row>
     <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -5189,6 +6914,11 @@
       </c>
     </row>
     <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -5202,6 +6932,11 @@
       </c>
     </row>
     <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
           <t>Teopantlán</t>
@@ -5215,6 +6950,11 @@
       </c>
     </row>
     <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -5228,6 +6968,11 @@
       </c>
     </row>
     <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B368" t="inlineStr">
         <is>
           <t>Tepeojuma</t>
@@ -5241,6 +6986,11 @@
       </c>
     </row>
     <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B369" t="inlineStr">
         <is>
           <t>Tepexi De Rodríguez</t>
@@ -5254,6 +7004,11 @@
       </c>
     </row>
     <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -5267,6 +7022,11 @@
       </c>
     </row>
     <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B371" t="inlineStr">
         <is>
           <t>Tianguismanalco</t>
@@ -5280,6 +7040,11 @@
       </c>
     </row>
     <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B372" t="inlineStr">
         <is>
           <t>Tilapa</t>
@@ -5293,6 +7058,11 @@
       </c>
     </row>
     <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B373" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -5306,6 +7076,11 @@
       </c>
     </row>
     <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B374" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -5319,6 +7094,11 @@
       </c>
     </row>
     <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B375" t="inlineStr">
         <is>
           <t>Tlaola</t>
@@ -5332,6 +7112,11 @@
       </c>
     </row>
     <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B376" t="inlineStr">
         <is>
           <t>Tlapanalá</t>
@@ -5345,6 +7130,11 @@
       </c>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B377" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -5358,6 +7148,11 @@
       </c>
     </row>
     <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B378" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -5371,6 +7166,11 @@
       </c>
     </row>
     <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B379" t="inlineStr">
         <is>
           <t>Tochimilco</t>
@@ -5384,6 +7184,11 @@
       </c>
     </row>
     <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B380" t="inlineStr">
         <is>
           <t>Tochtepec</t>
@@ -5397,6 +7202,11 @@
       </c>
     </row>
     <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B381" t="inlineStr">
         <is>
           <t>Tulcingo</t>
@@ -5410,6 +7220,11 @@
       </c>
     </row>
     <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B382" t="inlineStr">
         <is>
           <t>Xicotepec</t>
@@ -5423,6 +7238,11 @@
       </c>
     </row>
     <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B383" t="inlineStr">
         <is>
           <t>Xicotlán</t>
@@ -5436,6 +7256,11 @@
       </c>
     </row>
     <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B384" t="inlineStr">
         <is>
           <t>Xochiltepec</t>
@@ -5449,6 +7274,11 @@
       </c>
     </row>
     <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B385" t="inlineStr">
         <is>
           <t>Yehualtepec</t>
@@ -5462,6 +7292,11 @@
       </c>
     </row>
     <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B386" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -5475,6 +7310,11 @@
       </c>
     </row>
     <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B387" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -5488,6 +7328,11 @@
       </c>
     </row>
     <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B388" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -5501,6 +7346,11 @@
       </c>
     </row>
     <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B389" t="inlineStr">
         <is>
           <t>Zihuateutla</t>
@@ -5514,6 +7364,11 @@
       </c>
     </row>
     <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B390" t="inlineStr">
         <is>
           <t>Zinacatepec</t>
@@ -5527,6 +7382,11 @@
       </c>
     </row>
     <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B391" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5558,6 +7418,11 @@
       </c>
     </row>
     <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B393" t="inlineStr">
         <is>
           <t>Cadereyta De Montes</t>
@@ -5571,6 +7436,11 @@
       </c>
     </row>
     <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B394" t="inlineStr">
         <is>
           <t>Colón</t>
@@ -5584,6 +7454,11 @@
       </c>
     </row>
     <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B395" t="inlineStr">
         <is>
           <t>El Marqués</t>
@@ -5597,6 +7472,11 @@
       </c>
     </row>
     <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B396" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -5610,6 +7490,11 @@
       </c>
     </row>
     <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B397" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -5623,6 +7508,11 @@
       </c>
     </row>
     <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B398" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -5636,6 +7526,11 @@
       </c>
     </row>
     <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B399" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5667,6 +7562,11 @@
       </c>
     </row>
     <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B401" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5698,6 +7598,11 @@
       </c>
     </row>
     <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B403" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -5711,6 +7616,11 @@
       </c>
     </row>
     <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B404" t="inlineStr">
         <is>
           <t>Ebano</t>
@@ -5724,6 +7634,11 @@
       </c>
     </row>
     <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B405" t="inlineStr">
         <is>
           <t>Mexquitic De Carmona</t>
@@ -5737,6 +7652,11 @@
       </c>
     </row>
     <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B406" t="inlineStr">
         <is>
           <t>Rayón</t>
@@ -5750,6 +7670,11 @@
       </c>
     </row>
     <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B407" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -5763,6 +7688,11 @@
       </c>
     </row>
     <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B408" t="inlineStr">
         <is>
           <t>Tanquián De Escobedo</t>
@@ -5776,6 +7706,11 @@
       </c>
     </row>
     <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B409" t="inlineStr">
         <is>
           <t>Vanegas</t>
@@ -5789,6 +7724,11 @@
       </c>
     </row>
     <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B410" t="inlineStr">
         <is>
           <t>Villa De Reyes</t>
@@ -5802,6 +7742,11 @@
       </c>
     </row>
     <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B411" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5833,6 +7778,11 @@
       </c>
     </row>
     <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B413" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -5846,6 +7796,11 @@
       </c>
     </row>
     <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B414" t="inlineStr">
         <is>
           <t>Elota</t>
@@ -5859,6 +7814,11 @@
       </c>
     </row>
     <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B415" t="inlineStr">
         <is>
           <t>Mazatlán</t>
@@ -5872,6 +7832,11 @@
       </c>
     </row>
     <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B416" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5903,6 +7868,11 @@
       </c>
     </row>
     <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B418" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5934,6 +7904,11 @@
       </c>
     </row>
     <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B420" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -5947,6 +7922,11 @@
       </c>
     </row>
     <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B421" t="inlineStr">
         <is>
           <t>Jalpa De Méndez</t>
@@ -5960,6 +7940,11 @@
       </c>
     </row>
     <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B422" t="inlineStr">
         <is>
           <t>Tenosique</t>
@@ -5973,6 +7958,11 @@
       </c>
     </row>
     <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B423" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6004,6 +7994,11 @@
       </c>
     </row>
     <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B425" t="inlineStr">
         <is>
           <t>Ciudad Madero</t>
@@ -6017,6 +8012,11 @@
       </c>
     </row>
     <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B426" t="inlineStr">
         <is>
           <t>El Mante</t>
@@ -6030,6 +8030,11 @@
       </c>
     </row>
     <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B427" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -6043,6 +8048,11 @@
       </c>
     </row>
     <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B428" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -6056,6 +8066,11 @@
       </c>
     </row>
     <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B429" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -6069,6 +8084,11 @@
       </c>
     </row>
     <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B430" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6100,6 +8120,11 @@
       </c>
     </row>
     <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B432" t="inlineStr">
         <is>
           <t>Apizaco</t>
@@ -6113,6 +8138,11 @@
       </c>
     </row>
     <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B433" t="inlineStr">
         <is>
           <t>Calpulalpan</t>
@@ -6126,6 +8156,11 @@
       </c>
     </row>
     <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B434" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -6139,6 +8174,11 @@
       </c>
     </row>
     <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B435" t="inlineStr">
         <is>
           <t>Contla De Juan Cuamatzi</t>
@@ -6152,6 +8192,11 @@
       </c>
     </row>
     <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B436" t="inlineStr">
         <is>
           <t>Huamantla</t>
@@ -6165,6 +8210,11 @@
       </c>
     </row>
     <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B437" t="inlineStr">
         <is>
           <t>Hueyotlipan</t>
@@ -6178,6 +8228,11 @@
       </c>
     </row>
     <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B438" t="inlineStr">
         <is>
           <t>Ixtacuixtla De Mariano Matamoros</t>
@@ -6191,6 +8246,11 @@
       </c>
     </row>
     <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B439" t="inlineStr">
         <is>
           <t>La Magdalena Tlaltelulco</t>
@@ -6204,6 +8264,11 @@
       </c>
     </row>
     <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B440" t="inlineStr">
         <is>
           <t>Mazatecochco De José María Morelos</t>
@@ -6217,6 +8282,11 @@
       </c>
     </row>
     <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B441" t="inlineStr">
         <is>
           <t>Natívitas</t>
@@ -6230,6 +8300,11 @@
       </c>
     </row>
     <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B442" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -6243,6 +8318,11 @@
       </c>
     </row>
     <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B443" t="inlineStr">
         <is>
           <t>Papalotla De Xicohténcatl</t>
@@ -6256,6 +8336,11 @@
       </c>
     </row>
     <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B444" t="inlineStr">
         <is>
           <t>San Damián Texóloc</t>
@@ -6269,6 +8354,11 @@
       </c>
     </row>
     <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B445" t="inlineStr">
         <is>
           <t>San Francisco Tetlanohcan</t>
@@ -6282,6 +8372,11 @@
       </c>
     </row>
     <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B446" t="inlineStr">
         <is>
           <t>San Jerónimo Zacualpan</t>
@@ -6295,6 +8390,11 @@
       </c>
     </row>
     <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B447" t="inlineStr">
         <is>
           <t>San Juan Huactzinco</t>
@@ -6308,6 +8408,11 @@
       </c>
     </row>
     <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B448" t="inlineStr">
         <is>
           <t>San Pablo Del Monte</t>
@@ -6321,6 +8426,11 @@
       </c>
     </row>
     <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B449" t="inlineStr">
         <is>
           <t>Santa Apolonia Teacalco</t>
@@ -6334,6 +8444,11 @@
       </c>
     </row>
     <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B450" t="inlineStr">
         <is>
           <t>Santa Catarina Ayometla</t>
@@ -6347,6 +8462,11 @@
       </c>
     </row>
     <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B451" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -6360,6 +8480,11 @@
       </c>
     </row>
     <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B452" t="inlineStr">
         <is>
           <t>Teolocholco</t>
@@ -6373,6 +8498,11 @@
       </c>
     </row>
     <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B453" t="inlineStr">
         <is>
           <t>Tepeyanco</t>
@@ -6386,6 +8516,11 @@
       </c>
     </row>
     <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B454" t="inlineStr">
         <is>
           <t>Terrenate</t>
@@ -6399,6 +8534,11 @@
       </c>
     </row>
     <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B455" t="inlineStr">
         <is>
           <t>Tetla De La Solidaridad</t>
@@ -6412,6 +8552,11 @@
       </c>
     </row>
     <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B456" t="inlineStr">
         <is>
           <t>Tetlatlahuca</t>
@@ -6425,6 +8570,11 @@
       </c>
     </row>
     <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B457" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -6438,6 +8588,11 @@
       </c>
     </row>
     <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B458" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -6451,6 +8606,11 @@
       </c>
     </row>
     <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B459" t="inlineStr">
         <is>
           <t>Xicohtzinco</t>
@@ -6464,6 +8624,11 @@
       </c>
     </row>
     <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B460" t="inlineStr">
         <is>
           <t>Zacatelco</t>
@@ -6477,6 +8642,11 @@
       </c>
     </row>
     <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B461" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6508,6 +8678,11 @@
       </c>
     </row>
     <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B463" t="inlineStr">
         <is>
           <t>Actopan</t>
@@ -6521,6 +8696,11 @@
       </c>
     </row>
     <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B464" t="inlineStr">
         <is>
           <t>Alto Lucero De Gutiérrez Barrios</t>
@@ -6534,6 +8714,11 @@
       </c>
     </row>
     <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B465" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -6547,6 +8732,11 @@
       </c>
     </row>
     <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
           <t>Banderilla</t>
@@ -6560,6 +8750,11 @@
       </c>
     </row>
     <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B467" t="inlineStr">
         <is>
           <t>Catemaco</t>
@@ -6573,6 +8768,11 @@
       </c>
     </row>
     <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
           <t>Chiconamel</t>
@@ -6586,6 +8786,11 @@
       </c>
     </row>
     <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
           <t>Chicontepec</t>
@@ -6599,6 +8804,11 @@
       </c>
     </row>
     <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -6612,6 +8822,11 @@
       </c>
     </row>
     <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -6625,6 +8840,11 @@
       </c>
     </row>
     <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
           <t>Coyutla</t>
@@ -6638,6 +8858,11 @@
       </c>
     </row>
     <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
           <t>Cuitláhuac</t>
@@ -6651,6 +8876,11 @@
       </c>
     </row>
     <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -6664,6 +8894,11 @@
       </c>
     </row>
     <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr">
         <is>
           <t>Espinal</t>
@@ -6677,6 +8912,11 @@
       </c>
     </row>
     <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
           <t>Hidalgotitlán</t>
@@ -6690,6 +8930,11 @@
       </c>
     </row>
     <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B477" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -6703,6 +8948,11 @@
       </c>
     </row>
     <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -6716,6 +8966,11 @@
       </c>
     </row>
     <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B479" t="inlineStr">
         <is>
           <t>Ixhuatlán De Madero</t>
@@ -6729,6 +8984,11 @@
       </c>
     </row>
     <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr">
         <is>
           <t>Jesús Carranza</t>
@@ -6742,6 +9002,11 @@
       </c>
     </row>
     <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B481" t="inlineStr">
         <is>
           <t>José Azueta</t>
@@ -6755,6 +9020,11 @@
       </c>
     </row>
     <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B482" t="inlineStr">
         <is>
           <t>Juchique De Ferrer</t>
@@ -6768,6 +9038,11 @@
       </c>
     </row>
     <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B483" t="inlineStr">
         <is>
           <t>La Antigua</t>
@@ -6781,6 +9056,11 @@
       </c>
     </row>
     <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B484" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -6794,6 +9074,11 @@
       </c>
     </row>
     <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -6807,6 +9092,11 @@
       </c>
     </row>
     <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -6820,6 +9110,11 @@
       </c>
     </row>
     <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B487" t="inlineStr">
         <is>
           <t>Nanchital De Lázaro Cárdenas Del Río</t>
@@ -6833,6 +9128,11 @@
       </c>
     </row>
     <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B488" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -6846,6 +9146,11 @@
       </c>
     </row>
     <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B489" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -6859,6 +9164,11 @@
       </c>
     </row>
     <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B490" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -6872,6 +9182,11 @@
       </c>
     </row>
     <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B491" t="inlineStr">
         <is>
           <t>Paso De Ovejas</t>
@@ -6885,6 +9200,11 @@
       </c>
     </row>
     <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B492" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -6898,6 +9218,11 @@
       </c>
     </row>
     <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B493" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -6911,6 +9236,11 @@
       </c>
     </row>
     <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B494" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -6924,6 +9254,11 @@
       </c>
     </row>
     <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B495" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -6937,6 +9272,11 @@
       </c>
     </row>
     <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B496" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -6950,6 +9290,11 @@
       </c>
     </row>
     <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B497" t="inlineStr">
         <is>
           <t>Tantoyuca</t>
@@ -6963,6 +9308,11 @@
       </c>
     </row>
     <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B498" t="inlineStr">
         <is>
           <t>Texcatepec</t>
@@ -6976,6 +9326,11 @@
       </c>
     </row>
     <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B499" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -6989,6 +9344,11 @@
       </c>
     </row>
     <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B500" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -7002,6 +9362,11 @@
       </c>
     </row>
     <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B501" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -7015,6 +9380,11 @@
       </c>
     </row>
     <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B502" t="inlineStr">
         <is>
           <t>Tomatlán</t>
@@ -7028,6 +9398,11 @@
       </c>
     </row>
     <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B503" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -7041,6 +9416,11 @@
       </c>
     </row>
     <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B504" t="inlineStr">
         <is>
           <t>Ursulo Galván</t>
@@ -7054,6 +9434,11 @@
       </c>
     </row>
     <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B505" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -7067,6 +9452,11 @@
       </c>
     </row>
     <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B506" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -7080,6 +9470,11 @@
       </c>
     </row>
     <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B507" t="inlineStr">
         <is>
           <t>Yanga</t>
@@ -7093,6 +9488,11 @@
       </c>
     </row>
     <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B508" t="inlineStr">
         <is>
           <t>Álamo Temapache</t>
@@ -7106,6 +9506,11 @@
       </c>
     </row>
     <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B509" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7137,6 +9542,11 @@
       </c>
     </row>
     <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B511" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7168,6 +9578,11 @@
       </c>
     </row>
     <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B513" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -7181,6 +9596,11 @@
       </c>
     </row>
     <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B514" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -7194,6 +9614,11 @@
       </c>
     </row>
     <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B515" t="inlineStr">
         <is>
           <t>Teúl De González Ortega</t>
@@ -7207,6 +9632,11 @@
       </c>
     </row>
     <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B516" t="inlineStr">
         <is>
           <t>Tlaltenango De Sánchez Román</t>
@@ -7220,6 +9650,11 @@
       </c>
     </row>
     <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B517" t="inlineStr">
         <is>
           <t>Villa De Cos</t>
@@ -7233,6 +9668,11 @@
       </c>
     </row>
     <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B518" t="inlineStr">
         <is>
           <t>Villa González Ortega</t>
@@ -7246,6 +9686,11 @@
       </c>
     </row>
     <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B519" t="inlineStr">
         <is>
           <t>Villanueva</t>
@@ -7259,6 +9704,11 @@
       </c>
     </row>
     <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B520" t="inlineStr">
         <is>
           <t>Total</t>
